--- a/Diagrama Base de Datos.xlsx
+++ b/Diagrama Base de Datos.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos Notebook\TUP\TESIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E8D2DD-CF2F-46EC-8D77-1303C6EF46CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BD1CAE-880E-4986-96C1-569BF4657692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDC5D4F9-3A72-4E28-8993-1E9AB7AAEE53}"/>
+    <workbookView xWindow="16215" yWindow="5925" windowWidth="21600" windowHeight="11385" tabRatio="779" activeTab="3" xr2:uid="{CDC5D4F9-3A72-4E28-8993-1E9AB7AAEE53}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="consignas" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="ESTUDIANTES" sheetId="3" r:id="rId3"/>
+    <sheet name="DOCENTES" sheetId="5" r:id="rId4"/>
+    <sheet name="MATERIAS" sheetId="6" r:id="rId5"/>
+    <sheet name="REPORTES" sheetId="8" r:id="rId6"/>
+    <sheet name="RUBRICA" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="121">
   <si>
     <t>PK</t>
   </si>
@@ -252,9 +256,6 @@
     <t>CRITERIOS</t>
   </si>
   <si>
-    <t>criterio</t>
-  </si>
-  <si>
     <t>tipoNota(nota o Recuperatorio 1 o 2)</t>
   </si>
   <si>
@@ -264,36 +265,12 @@
     <t>idTema</t>
   </si>
   <si>
-    <t>valoracion</t>
-  </si>
-  <si>
-    <t>TEMA</t>
-  </si>
-  <si>
     <t>DESCRIPCION</t>
   </si>
   <si>
-    <t>ID CRITERIO</t>
-  </si>
-  <si>
-    <t>NRO CRITERIO</t>
-  </si>
-  <si>
-    <t>DETALLE DE LA EVOLUCION</t>
-  </si>
-  <si>
     <t>alumno</t>
   </si>
   <si>
-    <t>nroTema</t>
-  </si>
-  <si>
-    <t>numeros_Criterios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numero </t>
-  </si>
-  <si>
     <t>tipos__Notas</t>
   </si>
   <si>
@@ -379,6 +356,98 @@
   </si>
   <si>
     <t>Tema 4</t>
+  </si>
+  <si>
+    <t>TAREA</t>
+  </si>
+  <si>
+    <t>SUB TAREA</t>
+  </si>
+  <si>
+    <t>ALTA Estudiante</t>
+  </si>
+  <si>
+    <t>BAJA Estudiante</t>
+  </si>
+  <si>
+    <t>Editar Estudiante</t>
+  </si>
+  <si>
+    <t>Crear Metodo
+Crear Vista
+Crear Tabla Estudiantes
+Testing Funcionalidad</t>
+  </si>
+  <si>
+    <t>Crear Metodo
+Crear Boton en la Vista
+Testing Funcionalidad</t>
+  </si>
+  <si>
+    <t>MOSTRAR Estudiante</t>
+  </si>
+  <si>
+    <t>Crear Metodo
+Crear Vista
+Testing Funcionalidad</t>
+  </si>
+  <si>
+    <t>Buen Maquetado Visual 
+Conectar con Resto de Pantallas</t>
+  </si>
+  <si>
+    <t>Mejorar Visual ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>ALTA Docente</t>
+  </si>
+  <si>
+    <t>BAJA Docente</t>
+  </si>
+  <si>
+    <t>Editar Docente</t>
+  </si>
+  <si>
+    <t>MOSTRAR Docente</t>
+  </si>
+  <si>
+    <t>Mejorar Visual Docente</t>
+  </si>
+  <si>
+    <t>ALTA Materia</t>
+  </si>
+  <si>
+    <t>BAJA Materia</t>
+  </si>
+  <si>
+    <t>Editar Materia</t>
+  </si>
+  <si>
+    <t>MOSTRAR Materia</t>
+  </si>
+  <si>
+    <t>Mejorar Visual Materia</t>
+  </si>
+  <si>
+    <t>Asignar Materia a docente</t>
+  </si>
+  <si>
+    <t>Crear Metodo
+Crear Vista
+Crear Tabla MateriaxDocente
+Testing Funcionalidad</t>
+  </si>
+  <si>
+    <t>Crear Metodo
+Crear Vista
+Crear Tabla Materia
+Testing Funcionalidad</t>
+  </si>
+  <si>
+    <t>Crear Metodo
+Crear Vista
+Crear Tabla Docente
+Testing Funcionalidad</t>
   </si>
 </sst>
 </file>
@@ -418,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -586,6 +661,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -598,8 +675,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94D9A6D-2189-47D7-92CD-80E0A370038C}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -954,11 +1041,11 @@
       <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
         <v>35</v>
@@ -984,13 +1071,13 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1026,11 +1113,11 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
         <v>42</v>
@@ -1057,15 +1144,15 @@
         <v>38</v>
       </c>
       <c r="V4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>43</v>
@@ -1090,17 +1177,17 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="V5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1119,7 +1206,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="V6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1140,7 +1227,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="V7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1190,19 +1277,19 @@
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27" t="s">
-        <v>64</v>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1221,29 +1308,29 @@
         <v>0</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
-        <v>103</v>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
-      <c r="P11" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" s="26" t="s">
+      <c r="P11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="22" t="s">
         <v>60</v>
       </c>
       <c r="R11" s="1">
         <v>500</v>
       </c>
       <c r="T11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1258,32 +1345,32 @@
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26" t="s">
-        <v>68</v>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26" t="s">
-        <v>87</v>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1300,10 +1387,10 @@
       </c>
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="22" t="s">
         <v>46</v>
       </c>
       <c r="L13" s="8">
@@ -1311,15 +1398,15 @@
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26" t="s">
-        <v>92</v>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="T13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1336,20 +1423,20 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="26" t="s">
-        <v>65</v>
+      <c r="K14" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="L14" s="8">
         <v>8</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26" t="s">
-        <v>65</v>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="R14" s="1">
         <v>8</v>
@@ -1363,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1409,113 +1496,113 @@
       <c r="Q17" s="8"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="26"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="26" t="s">
+      <c r="B22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="E22" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="G23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26" t="s">
+      <c r="J23" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26" t="s">
+      <c r="K23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>90</v>
       </c>
       <c r="Q23" t="s">
         <v>36</v>
       </c>
       <c r="R23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G24" s="26"/>
-      <c r="H24" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
       <c r="Q24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R24">
         <v>8</v>
@@ -1543,10 +1630,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,40 +1678,40 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" t="s">
         <v>17</v>
       </c>
@@ -1633,14 +1720,14 @@
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" t="s">
         <v>18</v>
       </c>
@@ -1649,14 +1736,14 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="H5" t="s">
         <v>25</v>
       </c>
@@ -1665,27 +1752,27 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" t="s">
         <v>17</v>
       </c>
@@ -1694,14 +1781,14 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" t="s">
         <v>18</v>
       </c>
@@ -1710,14 +1797,14 @@
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" t="s">
         <v>19</v>
       </c>
@@ -1726,14 +1813,14 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" t="s">
         <v>12</v>
       </c>
@@ -1742,27 +1829,27 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" t="s">
         <v>17</v>
       </c>
@@ -1771,14 +1858,14 @@
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" t="s">
         <v>18</v>
       </c>
@@ -1787,14 +1874,14 @@
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" t="s">
         <v>19</v>
       </c>
@@ -1803,14 +1890,14 @@
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" t="s">
         <v>12</v>
       </c>
@@ -1819,27 +1906,27 @@
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" t="s">
         <v>20</v>
       </c>
@@ -1848,27 +1935,27 @@
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" t="s">
         <v>17</v>
       </c>
@@ -1877,215 +1964,215 @@
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -2133,130 +2220,235 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443CB972-B1EA-4985-A2C9-69EC110B6F24}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J3"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1">
-        <v>154</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>64</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A47D89-256E-47F2-91F1-87C76DF98E39}">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7E9792-DF88-40DB-A180-22DF69860EA2}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4DE4B5-1560-42EF-8348-0440BCFFB10E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEDE54F-3EA9-47DE-8DE2-2AD52AB66656}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>